--- a/RAPPORT LIVRAISON 01-2022.xlsx
+++ b/RAPPORT LIVRAISON 01-2022.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E95E90-7530-4F9A-AF7A-07CDA1510184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB71BCF-E8A2-458E-84B2-7CCC036629D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="946">
   <si>
     <t>Date d'entrée</t>
   </si>
@@ -2619,21 +2619,9 @@
     <t>000554/22</t>
   </si>
   <si>
-    <t>1000 m3</t>
-  </si>
-  <si>
     <t>GRAVETTE G1 4/10</t>
   </si>
   <si>
-    <t>5800 m3</t>
-  </si>
-  <si>
-    <t>4300 M3</t>
-  </si>
-  <si>
-    <t>1 VOYAGE</t>
-  </si>
-  <si>
     <t>000555/22</t>
   </si>
   <si>
@@ -2830,15 +2818,6 @@
   </si>
   <si>
     <t>000615/22</t>
-  </si>
-  <si>
-    <t>3000 m3</t>
-  </si>
-  <si>
-    <t>6300 m3</t>
-  </si>
-  <si>
-    <t>4900 M3</t>
   </si>
   <si>
     <t>13/01/2022</t>
@@ -3410,27 +3389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3460,6 +3418,27 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6662,10 +6641,10 @@
       </c>
     </row>
     <row r="59" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="38"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="7">
         <v>985.72</v>
       </c>
@@ -6674,10 +6653,10 @@
       </c>
     </row>
     <row r="60" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="M60" s="39"/>
+      <c r="M60" s="49"/>
       <c r="N60" s="9">
         <v>985.72</v>
       </c>
@@ -6692,11 +6671,11 @@
       <c r="C61" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="50">
         <v>0.49890000000000001</v>
       </c>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="52"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
@@ -6711,16 +6690,16 @@
       <c r="C62" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="40">
-        <v>0</v>
-      </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
+      <c r="D62" s="50">
+        <v>0</v>
+      </c>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
       <c r="I62" s="13"/>
-      <c r="L62" s="39" t="s">
+      <c r="L62" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M62" s="39"/>
+      <c r="M62" s="49"/>
       <c r="N62" s="9">
         <v>447.46</v>
       </c>
@@ -6735,15 +6714,15 @@
       <c r="C63" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="50">
         <v>6.08E-2</v>
       </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="L63" s="43" t="s">
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="L63" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="M63" s="43"/>
+      <c r="M63" s="53"/>
       <c r="N63" s="14"/>
       <c r="P63" s="10" t="s">
         <v>127</v>
@@ -6756,11 +6735,11 @@
       <c r="C64" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D64" s="50">
         <v>0.44019999999999998</v>
       </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
       <c r="P64" s="10" t="s">
         <v>129</v>
       </c>
@@ -6769,10 +6748,10 @@
       </c>
     </row>
     <row r="65" spans="3:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="L65" s="44" t="s">
+      <c r="L65" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M65" s="44"/>
+      <c r="M65" s="54"/>
       <c r="N65" s="15" t="s">
         <v>131</v>
       </c>
@@ -6831,60 +6810,60 @@
       </c>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="52">
+      <c r="D75" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="43"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="45">
         <v>0.34820000000000001</v>
       </c>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C76" s="47"/>
-      <c r="D76" s="49" t="s">
+      <c r="C76" s="40"/>
+      <c r="D76" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="53"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="46"/>
     </row>
     <row r="77" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C77" s="47"/>
-      <c r="D77" s="49" t="s">
+      <c r="C77" s="40"/>
+      <c r="D77" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="50"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="53"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="46"/>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C78" s="47"/>
-      <c r="D78" s="49" t="s">
+      <c r="C78" s="40"/>
+      <c r="D78" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="50"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="53"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="46"/>
     </row>
     <row r="79" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C79" s="48"/>
-      <c r="D79" s="49" t="s">
+      <c r="C79" s="41"/>
+      <c r="D79" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="54"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="47"/>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C80" s="18"/>
@@ -6903,15 +6882,6 @@
   </sheetData>
   <autoFilter ref="A1:S52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="22">
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
     <mergeCell ref="C72:F72"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="L60:M60"/>
@@ -6925,6 +6895,15 @@
     <mergeCell ref="C69:F69"/>
     <mergeCell ref="C70:F70"/>
     <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6936,11 +6915,12 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:P67"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.6640625" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
   </cols>
@@ -9223,273 +9203,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="7">
-        <v>1154.0999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K46" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="9">
-        <v>1320.54</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="40">
-        <v>0.38879999999999998</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="O47" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="B48" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="40">
-        <v>8.6499999999999994E-2</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="H48" s="13"/>
-      <c r="K48" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="9">
-        <v>60.24</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P48" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B49" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="40">
-        <v>0</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="K49" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="L49" s="43"/>
-      <c r="M49" s="14"/>
-      <c r="O49" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="P49" s="11" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B50" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="40">
-        <v>0.52449999999999997</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="O50" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="K51" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="L51" s="44"/>
-      <c r="M51" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="P51" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="O52" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P52" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="16">
-        <v>0.87390000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="16">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="16">
-        <v>3.3399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="52">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="47"/>
-      <c r="C62" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="53"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="47"/>
-      <c r="C63" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="53"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="47"/>
-      <c r="C64" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="53"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="48"/>
-      <c r="C65" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="54"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-    </row>
-    <row r="67" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B67" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-    </row>
+    <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="18" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:R42" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
-  <mergeCells count="22">
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9498,12 +9214,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:P86"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.6640625" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
   </cols>
@@ -9578,7 +9295,7 @@
         <v>41946</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>36</v>
@@ -9632,7 +9349,7 @@
         <v>41947</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>630</v>
@@ -9686,7 +9403,7 @@
         <v>41948</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>763</v>
@@ -9740,7 +9457,7 @@
         <v>41949</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>70</v>
@@ -9794,7 +9511,7 @@
         <v>41950</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>153</v>
@@ -9848,7 +9565,7 @@
         <v>41951</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>99</v>
@@ -9902,7 +9619,7 @@
         <v>41952</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>184</v>
@@ -9956,7 +9673,7 @@
         <v>41953</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>188</v>
@@ -10010,7 +9727,7 @@
         <v>41954</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>51</v>
@@ -10064,7 +9781,7 @@
         <v>41955</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>24</v>
@@ -10118,7 +9835,7 @@
         <v>41956</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>181</v>
@@ -10172,7 +9889,7 @@
         <v>41957</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>771</v>
@@ -10226,7 +9943,7 @@
         <v>41958</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>166</v>
@@ -10280,7 +9997,7 @@
         <v>41959</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>164</v>
@@ -10334,7 +10051,7 @@
         <v>41960</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>374</v>
@@ -10388,7 +10105,7 @@
         <v>41961</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>62</v>
@@ -10444,7 +10161,7 @@
         <v>41962</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>306</v>
@@ -10498,7 +10215,7 @@
         <v>41963</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>346</v>
@@ -10554,7 +10271,7 @@
         <v>41964</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>40</v>
@@ -10608,7 +10325,7 @@
         <v>41965</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>771</v>
@@ -10662,7 +10379,7 @@
         <v>41966</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>287</v>
@@ -10716,7 +10433,7 @@
         <v>41967</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>99</v>
@@ -10770,7 +10487,7 @@
         <v>41968</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>184</v>
@@ -10824,7 +10541,7 @@
         <v>41969</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>70</v>
@@ -10878,7 +10595,7 @@
         <v>41970</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>36</v>
@@ -10932,7 +10649,7 @@
         <v>41971</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>188</v>
@@ -10986,7 +10703,7 @@
         <v>41972</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>495</v>
@@ -11040,7 +10757,7 @@
         <v>41973</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>198</v>
@@ -11096,7 +10813,7 @@
         <v>41974</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>21</v>
@@ -11150,7 +10867,7 @@
         <v>41975</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>301</v>
@@ -11206,7 +10923,7 @@
         <v>41976</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>771</v>
@@ -11260,7 +10977,7 @@
         <v>41977</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>168</v>
@@ -11314,7 +11031,7 @@
         <v>41978</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>34</v>
@@ -11368,7 +11085,7 @@
         <v>41979</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>314</v>
@@ -11422,7 +11139,7 @@
         <v>41980</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>149</v>
@@ -11476,7 +11193,7 @@
         <v>41981</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>17</v>
@@ -11530,7 +11247,7 @@
         <v>41982</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>24</v>
@@ -11584,7 +11301,7 @@
         <v>41983</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>498</v>
@@ -11640,7 +11357,7 @@
         <v>41984</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>51</v>
@@ -11694,7 +11411,7 @@
         <v>41985</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>36</v>
@@ -11748,7 +11465,7 @@
         <v>41986</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>306</v>
@@ -11802,7 +11519,7 @@
         <v>41987</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>374</v>
@@ -11856,7 +11573,7 @@
         <v>41988</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>771</v>
@@ -11910,13 +11627,13 @@
         <v>41989</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>236</v>
@@ -11964,7 +11681,7 @@
         <v>41990</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>40</v>
@@ -12018,7 +11735,7 @@
         <v>41991</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>212</v>
@@ -12072,7 +11789,7 @@
         <v>41992</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>181</v>
@@ -12126,7 +11843,7 @@
         <v>41993</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>60</v>
@@ -12180,7 +11897,7 @@
         <v>41994</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>166</v>
@@ -12234,7 +11951,7 @@
         <v>41995</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>287</v>
@@ -12288,7 +12005,7 @@
         <v>41996</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>70</v>
@@ -12342,7 +12059,7 @@
         <v>41997</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>188</v>
@@ -12396,7 +12113,7 @@
         <v>41998</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>771</v>
@@ -12450,14 +12167,14 @@
         <v>41999</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="H55" s="26"/>
       <c r="I55" s="27" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>32</v>
@@ -12502,14 +12219,14 @@
         <v>42000</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="27" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>32</v>
@@ -12554,7 +12271,7 @@
         <v>42001</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G57" s="17" t="s">
         <v>164</v>
@@ -12608,7 +12325,7 @@
         <v>42002</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>149</v>
@@ -12662,7 +12379,7 @@
         <v>42003</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>51</v>
@@ -12716,7 +12433,7 @@
         <v>42004</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>495</v>
@@ -12770,7 +12487,7 @@
         <v>42005</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>771</v>
@@ -12824,7 +12541,7 @@
         <v>42006</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>771</v>
@@ -12860,273 +12577,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="7">
-        <v>1851.06</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K65" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="L65" s="39"/>
-      <c r="M65" s="9">
-        <v>2050.38</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B66" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="40">
-        <v>0.50149999999999995</v>
-      </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="O66" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P66" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B67" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="40">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
-      <c r="H67" s="13"/>
-      <c r="K67" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L67" s="39"/>
-      <c r="M67" s="9">
-        <v>224.32</v>
-      </c>
-      <c r="O67" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P67" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B68" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="40">
-        <v>0</v>
-      </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
-      <c r="K68" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="L68" s="43"/>
-      <c r="M68" s="14"/>
-      <c r="O68" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="P68" s="11" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B69" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="40">
-        <v>0.42359999999999998</v>
-      </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
-      <c r="O69" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="P69" s="11" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="K70" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="L70" s="44"/>
-      <c r="M70" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="O70" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="O71" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="P71" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="16">
-        <v>0.92059999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="17"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="16">
-        <v>7.9299999999999995E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="17"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="16">
-        <v>1.9400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="17"/>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="52">
-        <v>0.54710000000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="47"/>
-      <c r="C81" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="53"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="47"/>
-      <c r="C82" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" s="50"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="53"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="47"/>
-      <c r="C83" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="53"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="48"/>
-      <c r="C84" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="54"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-    </row>
-    <row r="86" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B86" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-    </row>
+    <row r="65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="18" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:R62" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
-  <mergeCells count="22">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13135,12 +12589,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.44140625" customWidth="1"/>
     <col min="18" max="18" width="22.33203125" customWidth="1"/>
   </cols>
@@ -13199,7 +12654,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B2" s="3">
         <v>0.27027777777777778</v>
@@ -13215,7 +12670,7 @@
         <v>42007</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>160</v>
@@ -13253,7 +12708,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B3" s="3">
         <v>0.27493055555555557</v>
@@ -13269,7 +12724,7 @@
         <v>42008</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>149</v>
@@ -13307,7 +12762,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B4" s="3">
         <v>0.28277777777777779</v>
@@ -13323,14 +12778,14 @@
         <v>42009</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
@@ -13356,12 +12811,12 @@
         <v>537</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B5" s="3">
         <v>0.28736111111111112</v>
@@ -13377,7 +12832,7 @@
         <v>42010</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>85</v>
@@ -13415,7 +12870,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B6" s="3">
         <v>0.28958333333333336</v>
@@ -13431,7 +12886,7 @@
         <v>42011</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>153</v>
@@ -13469,7 +12924,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B7" s="3">
         <v>0.29651620370370374</v>
@@ -13485,7 +12940,7 @@
         <v>42012</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>99</v>
@@ -13523,7 +12978,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B8" s="3">
         <v>0.29962962962962963</v>
@@ -13539,7 +12994,7 @@
         <v>42013</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>166</v>
@@ -13577,7 +13032,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B9" s="3">
         <v>0.30592592592592593</v>
@@ -13593,7 +13048,7 @@
         <v>42014</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>495</v>
@@ -13631,7 +13086,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B10" s="3">
         <v>0.31107638888888889</v>
@@ -13647,7 +13102,7 @@
         <v>42015</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>24</v>
@@ -13685,7 +13140,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B11" s="3">
         <v>0.31646990740740738</v>
@@ -13701,7 +13156,7 @@
         <v>42016</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>374</v>
@@ -13739,7 +13194,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B12" s="3">
         <v>0.32413194444444443</v>
@@ -13755,7 +13210,7 @@
         <v>42017</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>188</v>
@@ -13793,7 +13248,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B13" s="3">
         <v>0.32907407407407407</v>
@@ -13809,7 +13264,7 @@
         <v>42018</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>184</v>
@@ -13847,7 +13302,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B14" s="3">
         <v>0.33134259259259258</v>
@@ -13863,7 +13318,7 @@
         <v>42019</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>272</v>
@@ -13901,7 +13356,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B15" s="3">
         <v>0.33766203703703707</v>
@@ -13917,7 +13372,7 @@
         <v>42020</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>105</v>
@@ -13955,7 +13410,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B16" s="3">
         <v>0.34328703703703706</v>
@@ -13971,7 +13426,7 @@
         <v>42021</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>630</v>
@@ -14009,7 +13464,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B17" s="3">
         <v>0.35920138888888892</v>
@@ -14025,7 +13480,7 @@
         <v>42022</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>164</v>
@@ -14063,7 +13518,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B18" s="3">
         <v>0.36152777777777773</v>
@@ -14079,7 +13534,7 @@
         <v>42023</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>51</v>
@@ -14117,7 +13572,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B19" s="3">
         <v>0.36413194444444441</v>
@@ -14133,7 +13588,7 @@
         <v>42024</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>181</v>
@@ -14171,7 +13626,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B20" s="3">
         <v>0.36959490740740741</v>
@@ -14187,7 +13642,7 @@
         <v>42025</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>287</v>
@@ -14225,7 +13680,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B21" s="3">
         <v>0.37723379629629633</v>
@@ -14241,7 +13696,7 @@
         <v>42027</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>40</v>
@@ -14279,7 +13734,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B22" s="3">
         <v>0.37266203703703704</v>
@@ -14295,7 +13750,7 @@
         <v>42028</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>87</v>
@@ -14335,7 +13790,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B23" s="3">
         <v>0.38497685185185188</v>
@@ -14351,7 +13806,7 @@
         <v>42029</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>36</v>
@@ -14389,7 +13844,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B24" s="3">
         <v>0.4059490740740741</v>
@@ -14405,7 +13860,7 @@
         <v>42030</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>306</v>
@@ -14443,7 +13898,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B25" s="3">
         <v>0.42726851851851855</v>
@@ -14459,7 +13914,7 @@
         <v>42031</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>51</v>
@@ -14497,7 +13952,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B26" s="3">
         <v>0.43349537037037034</v>
@@ -14513,7 +13968,7 @@
         <v>42032</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>166</v>
@@ -14551,7 +14006,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B27" s="3">
         <v>0.43810185185185185</v>
@@ -14567,7 +14022,7 @@
         <v>42033</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>575</v>
@@ -14605,7 +14060,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B28" s="3">
         <v>0.45873842592592595</v>
@@ -14621,7 +14076,7 @@
         <v>42034</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>99</v>
@@ -14659,7 +14114,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B29" s="3">
         <v>0.46828703703703706</v>
@@ -14675,7 +14130,7 @@
         <v>42035</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>188</v>
@@ -14713,7 +14168,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B30" s="3">
         <v>0.47072916666666664</v>
@@ -14729,7 +14184,7 @@
         <v>42036</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>112</v>
@@ -14769,7 +14224,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B31" s="3">
         <v>0.47766203703703702</v>
@@ -14785,14 +14240,14 @@
         <v>42037</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>184</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>32</v>
@@ -14818,12 +14273,12 @@
         <v>537</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B32" s="3">
         <v>0.49115740740740743</v>
@@ -14839,7 +14294,7 @@
         <v>42038</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>181</v>
@@ -14877,7 +14332,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B33" s="3">
         <v>0.49799768518518522</v>
@@ -14893,7 +14348,7 @@
         <v>42039</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>51</v>
@@ -14931,7 +14386,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B34" s="3">
         <v>0.50050925925925926</v>
@@ -14947,7 +14402,7 @@
         <v>42040</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>85</v>
@@ -14985,7 +14440,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B35" s="3">
         <v>0.50318287037037035</v>
@@ -15001,7 +14456,7 @@
         <v>42041</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>112</v>
@@ -15041,7 +14496,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B36" s="3">
         <v>0.51039351851851855</v>
@@ -15057,14 +14512,14 @@
         <v>42042</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>164</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>32</v>
@@ -15090,12 +14545,12 @@
         <v>537</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B37" s="3">
         <v>0.51489583333333333</v>
@@ -15111,7 +14566,7 @@
         <v>42043</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>36</v>
@@ -15149,7 +14604,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B38" s="3">
         <v>0.52083333333333337</v>
@@ -15165,7 +14620,7 @@
         <v>42044</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>54</v>
@@ -15203,7 +14658,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B39" s="3">
         <v>0.52682870370370372</v>
@@ -15219,14 +14674,14 @@
         <v>42045</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>70</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>32</v>
@@ -15252,12 +14707,12 @@
         <v>537</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B40" s="3">
         <v>0.55896990740740737</v>
@@ -15273,7 +14728,7 @@
         <v>42046</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>355</v>
@@ -15311,7 +14766,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B41" s="3">
         <v>0.56217592592592591</v>
@@ -15327,7 +14782,7 @@
         <v>42047</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>38</v>
@@ -15365,7 +14820,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B42" s="3">
         <v>0.56709490740740742</v>
@@ -15381,7 +14836,7 @@
         <v>42048</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>51</v>
@@ -15419,7 +14874,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B43" s="3">
         <v>0.5708333333333333</v>
@@ -15435,10 +14890,10 @@
         <v>42049</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>113</v>
@@ -15475,7 +14930,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B44" s="3">
         <v>0.57523148148148151</v>
@@ -15491,7 +14946,7 @@
         <v>42050</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>337</v>
@@ -15529,7 +14984,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B45" s="3">
         <v>0.5798726851851852</v>
@@ -15545,7 +15000,7 @@
         <v>42051</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>85</v>
@@ -15583,7 +15038,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B46" s="3">
         <v>0.58653935185185191</v>
@@ -15599,7 +15054,7 @@
         <v>42052</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>505</v>
@@ -15637,7 +15092,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B47" s="3">
         <v>0.60488425925925926</v>
@@ -15653,7 +15108,7 @@
         <v>42053</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>218</v>
@@ -15662,7 +15117,7 @@
         <v>13054</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>652</v>
@@ -15691,7 +15146,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B48" s="3">
         <v>0.60690972222222228</v>
@@ -15707,16 +15162,16 @@
         <v>42054</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="H48" s="17" t="s">
         <v>113</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>32</v>
@@ -15747,7 +15202,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B49" s="3">
         <v>0.61359953703703707</v>
@@ -15763,7 +15218,7 @@
         <v>42055</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>188</v>
@@ -15801,7 +15256,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B50" s="3">
         <v>0.61579861111111112</v>
@@ -15817,7 +15272,7 @@
         <v>42056</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>59</v>
@@ -15855,7 +15310,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B51" s="3">
         <v>0.62626157407407412</v>
@@ -15871,7 +15326,7 @@
         <v>42057</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>212</v>
@@ -15909,7 +15364,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B52" s="3">
         <v>0.62890046296296298</v>
@@ -15925,7 +15380,7 @@
         <v>42058</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>30</v>
@@ -15963,7 +15418,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B53" s="3">
         <v>0.63813657407407409</v>
@@ -15979,7 +15434,7 @@
         <v>42059</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>51</v>
@@ -16017,7 +15472,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B54" s="3">
         <v>0.64111111111111108</v>
@@ -16033,10 +15488,10 @@
         <v>42060</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>113</v>
@@ -16073,7 +15528,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B55" s="3">
         <v>0.64893518518518511</v>
@@ -16089,7 +15544,7 @@
         <v>42061</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>85</v>
@@ -16127,7 +15582,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B56" s="3">
         <v>0.65190972222222221</v>
@@ -16143,16 +15598,16 @@
         <v>42062</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="H56" s="17" t="s">
         <v>113</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>89</v>
@@ -16183,7 +15638,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B57" s="3">
         <v>0.69877314814814817</v>
@@ -16199,7 +15654,7 @@
         <v>42063</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="G57" s="17" t="s">
         <v>36</v>
@@ -16237,7 +15692,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B58" s="3">
         <v>0.70390046296296294</v>
@@ -16253,7 +15708,7 @@
         <v>42064</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>70</v>
@@ -16291,7 +15746,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B59" s="3">
         <v>0.72913194444444451</v>
@@ -16307,7 +15762,7 @@
         <v>42065</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>218</v>
@@ -16316,7 +15771,7 @@
         <v>13055</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>64</v>
@@ -16386,7 +15841,7 @@
     <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="19"/>
       <c r="B62" s="55" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
@@ -16428,7 +15883,7 @@
     <row r="64" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="19"/>
       <c r="B64" s="55" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
@@ -16448,19 +15903,19 @@
       <c r="R64" s="35"/>
     </row>
     <row r="66" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="38"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="7">
         <v>1537.52</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K67" s="39" t="s">
+      <c r="K67" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="L67" s="39"/>
+      <c r="L67" s="49"/>
       <c r="M67" s="9">
         <v>1716.94</v>
       </c>
@@ -16472,11 +15927,11 @@
       <c r="B68" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="50">
         <v>0.44819999999999999</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="52"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
@@ -16491,16 +15946,16 @@
       <c r="B69" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="50">
         <v>0.14510000000000001</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="52"/>
       <c r="H69" s="13"/>
-      <c r="K69" s="39" t="s">
+      <c r="K69" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="L69" s="39"/>
+      <c r="L69" s="49"/>
       <c r="M69" s="9">
         <v>362.08</v>
       </c>
@@ -16508,22 +15963,22 @@
         <v>121</v>
       </c>
       <c r="P69" s="11" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="50">
         <v>2.53E-2</v>
       </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="42"/>
-      <c r="K70" s="43" t="s">
+      <c r="D70" s="51"/>
+      <c r="E70" s="52"/>
+      <c r="K70" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="L70" s="43"/>
+      <c r="L70" s="53"/>
       <c r="M70" s="14"/>
       <c r="O70" s="10" t="s">
         <v>764</v>
@@ -16536,23 +15991,23 @@
       <c r="B71" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="50">
         <v>0.38109999999999999</v>
       </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="52"/>
       <c r="O71" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="K72" s="44" t="s">
+      <c r="K72" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="L72" s="44"/>
+      <c r="L72" s="54"/>
       <c r="M72" s="15" t="s">
         <v>131</v>
       </c>
@@ -16560,7 +16015,7 @@
         <v>127</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -16568,7 +16023,7 @@
         <v>129</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
@@ -16619,60 +16074,60 @@
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="50"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="52">
+      <c r="C82" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="45">
         <v>0.52480000000000004</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="47"/>
-      <c r="C83" s="49" t="s">
+      <c r="B83" s="40"/>
+      <c r="C83" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="53"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="46"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="47"/>
-      <c r="C84" s="49" t="s">
+      <c r="B84" s="40"/>
+      <c r="C84" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="53"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="46"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="47"/>
-      <c r="C85" s="49" t="s">
+      <c r="B85" s="40"/>
+      <c r="C85" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D85" s="50"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="53"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="46"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="48"/>
-      <c r="C86" s="49" t="s">
+      <c r="B86" s="41"/>
+      <c r="C86" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D86" s="50"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="54"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="47"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="18"/>
@@ -16691,17 +16146,6 @@
   </sheetData>
   <autoFilter ref="A1:R59" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <mergeCells count="24">
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B80:E80"/>
@@ -16715,6 +16159,17 @@
     <mergeCell ref="C86:E86"/>
     <mergeCell ref="C71:E71"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20486,10 +19941,10 @@
       <c r="F71" s="55"/>
     </row>
     <row r="73" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="38"/>
+      <c r="C73" s="48"/>
       <c r="D73" s="7">
         <v>1357.02</v>
       </c>
@@ -20498,10 +19953,10 @@
       </c>
     </row>
     <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="K74" s="39" t="s">
+      <c r="K74" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="L74" s="39"/>
+      <c r="L74" s="49"/>
       <c r="M74" s="9">
         <v>1602.42</v>
       </c>
@@ -20516,11 +19971,11 @@
       <c r="B75" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="40">
+      <c r="C75" s="50">
         <v>0.24690000000000001</v>
       </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="52"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
@@ -20535,16 +19990,16 @@
       <c r="B76" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="50">
         <v>0.18279999999999999</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="52"/>
       <c r="H76" s="13"/>
-      <c r="K76" s="39" t="s">
+      <c r="K76" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="L76" s="39"/>
+      <c r="L76" s="49"/>
       <c r="M76" s="9">
         <v>772.12</v>
       </c>
@@ -20559,15 +20014,15 @@
       <c r="B77" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="50">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="42"/>
-      <c r="K77" s="43" t="s">
+      <c r="D77" s="51"/>
+      <c r="E77" s="52"/>
+      <c r="K77" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="L77" s="43"/>
+      <c r="L77" s="53"/>
       <c r="M77" s="14">
         <v>61.74</v>
       </c>
@@ -20582,11 +20037,11 @@
       <c r="B78" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="50">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="42"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="52"/>
       <c r="O78" s="10" t="s">
         <v>129</v>
       </c>
@@ -20595,10 +20050,10 @@
       </c>
     </row>
     <row r="79" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="K79" s="44" t="s">
+      <c r="K79" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="L79" s="44"/>
+      <c r="L79" s="54"/>
       <c r="M79" s="15" t="s">
         <v>131</v>
       </c>
@@ -20657,60 +20112,60 @@
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C89" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="52">
+      <c r="C89" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="45">
         <v>0.65080000000000005</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="47"/>
-      <c r="C90" s="49" t="s">
+      <c r="B90" s="40"/>
+      <c r="C90" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="53"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="46"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="47"/>
-      <c r="C91" s="49" t="s">
+      <c r="B91" s="40"/>
+      <c r="C91" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="53"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="46"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="47"/>
-      <c r="C92" s="49" t="s">
+      <c r="B92" s="40"/>
+      <c r="C92" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="53"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="46"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="48"/>
-      <c r="C93" s="49" t="s">
+      <c r="B93" s="41"/>
+      <c r="C93" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="54"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="47"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="18"/>
@@ -20729,6 +20184,17 @@
   </sheetData>
   <autoFilter ref="A1:R69" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B87:E87"/>
     <mergeCell ref="B88:E88"/>
@@ -20741,17 +20207,6 @@
     <mergeCell ref="C93:E93"/>
     <mergeCell ref="C78:E78"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="K77:L77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24796,10 +24251,10 @@
       <c r="F77" s="55"/>
     </row>
     <row r="79" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="38"/>
+      <c r="C79" s="48"/>
       <c r="D79" s="7">
         <v>1565.56</v>
       </c>
@@ -24808,10 +24263,10 @@
       </c>
     </row>
     <row r="80" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="K80" s="39" t="s">
+      <c r="K80" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="L80" s="39"/>
+      <c r="L80" s="49"/>
       <c r="M80" s="9">
         <v>1922.78</v>
       </c>
@@ -24826,11 +24281,11 @@
       <c r="B81" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="40">
+      <c r="C81" s="50">
         <v>0.30980000000000002</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="42"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="52"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
@@ -24845,16 +24300,16 @@
       <c r="B82" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="50">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="52"/>
       <c r="H82" s="13"/>
-      <c r="K82" s="39" t="s">
+      <c r="K82" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="L82" s="39"/>
+      <c r="L82" s="49"/>
       <c r="M82" s="9">
         <v>639.04</v>
       </c>
@@ -24869,15 +24324,15 @@
       <c r="B83" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="40">
+      <c r="C83" s="50">
         <v>0.12130000000000001</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="42"/>
-      <c r="K83" s="43" t="s">
+      <c r="D83" s="51"/>
+      <c r="E83" s="52"/>
+      <c r="K83" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="L83" s="43"/>
+      <c r="L83" s="53"/>
       <c r="M83" s="14">
         <v>19.2</v>
       </c>
@@ -24892,11 +24347,11 @@
       <c r="B84" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="50">
         <v>0.48220000000000002</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="52"/>
       <c r="O84" s="10" t="s">
         <v>129</v>
       </c>
@@ -24905,10 +24360,10 @@
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="K85" s="44" t="s">
+      <c r="K85" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="L85" s="44"/>
+      <c r="L85" s="54"/>
       <c r="M85" s="15" t="s">
         <v>131</v>
       </c>
@@ -24967,60 +24422,60 @@
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C95" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="52">
+      <c r="C95" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="45">
         <v>0.54779999999999995</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" s="47"/>
-      <c r="C96" s="49" t="s">
+      <c r="B96" s="40"/>
+      <c r="C96" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="53"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="46"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="47"/>
-      <c r="C97" s="49" t="s">
+      <c r="B97" s="40"/>
+      <c r="C97" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D97" s="50"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="53"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="46"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="47"/>
-      <c r="C98" s="49" t="s">
+      <c r="B98" s="40"/>
+      <c r="C98" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D98" s="50"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="53"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="46"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="48"/>
-      <c r="C99" s="49" t="s">
+      <c r="B99" s="41"/>
+      <c r="C99" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="50"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="54"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="47"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="18"/>
@@ -25039,17 +24494,6 @@
   </sheetData>
   <autoFilter ref="A1:R74" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="23">
-    <mergeCell ref="F95:F99"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="C95:E95"/>
     <mergeCell ref="B90:E90"/>
     <mergeCell ref="B77:F77"/>
     <mergeCell ref="B79:C79"/>
@@ -25062,6 +24506,17 @@
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28664,10 +28119,10 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D71" s="38"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="7">
         <v>1495.84</v>
       </c>
@@ -28676,10 +28131,10 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="L72" s="39" t="s">
+      <c r="L72" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="M72" s="39"/>
+      <c r="M72" s="49"/>
       <c r="N72" s="9">
         <v>1752.62</v>
       </c>
@@ -28694,11 +28149,11 @@
       <c r="C73" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="50">
         <v>0.3337</v>
       </c>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
@@ -28713,16 +28168,16 @@
       <c r="C74" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="50">
         <v>0.14710000000000001</v>
       </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="42"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="52"/>
       <c r="I74" s="13"/>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M74" s="39"/>
+      <c r="M74" s="49"/>
       <c r="N74" s="9">
         <v>552.74</v>
       </c>
@@ -28737,15 +28192,15 @@
       <c r="C75" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="40">
+      <c r="D75" s="50">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="42"/>
-      <c r="L75" s="43" t="s">
+      <c r="E75" s="51"/>
+      <c r="F75" s="52"/>
+      <c r="L75" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="M75" s="43"/>
+      <c r="M75" s="53"/>
       <c r="N75" s="14"/>
       <c r="P75" s="10" t="s">
         <v>127</v>
@@ -28758,11 +28213,11 @@
       <c r="C76" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="50">
         <v>0.41920000000000002</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="F76" s="42"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="52"/>
       <c r="P76" s="10" t="s">
         <v>129</v>
       </c>
@@ -28771,10 +28226,10 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="L77" s="44" t="s">
+      <c r="L77" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M77" s="44"/>
+      <c r="M77" s="54"/>
       <c r="N77" s="15" t="s">
         <v>131</v>
       </c>
@@ -28833,60 +28288,60 @@
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
       <c r="G86" s="17"/>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C87" s="46" t="s">
+      <c r="C87" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D87" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="52">
+      <c r="D87" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="45">
         <v>0.4466</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C88" s="47"/>
-      <c r="D88" s="49" t="s">
+      <c r="C88" s="40"/>
+      <c r="D88" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E88" s="50"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="53"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="46"/>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C89" s="47"/>
-      <c r="D89" s="49" t="s">
+      <c r="C89" s="40"/>
+      <c r="D89" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="53"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="46"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C90" s="47"/>
-      <c r="D90" s="49" t="s">
+      <c r="C90" s="40"/>
+      <c r="D90" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="53"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="46"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C91" s="48"/>
-      <c r="D91" s="49" t="s">
+      <c r="C91" s="41"/>
+      <c r="D91" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="50"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="54"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="47"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="18"/>
@@ -28905,6 +28360,15 @@
   </sheetData>
   <autoFilter ref="A1:AD66" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="22">
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
     <mergeCell ref="C84:F84"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="L72:M72"/>
@@ -28918,15 +28382,6 @@
     <mergeCell ref="C81:F81"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:G91"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32462,10 +31917,10 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D71" s="38"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="7">
         <v>1616.2</v>
       </c>
@@ -32474,10 +31929,10 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="L72" s="39" t="s">
+      <c r="L72" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="M72" s="39"/>
+      <c r="M72" s="49"/>
       <c r="N72" s="9">
         <v>1934.3</v>
       </c>
@@ -32492,11 +31947,11 @@
       <c r="C73" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="50">
         <v>0.36799999999999999</v>
       </c>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
@@ -32511,16 +31966,16 @@
       <c r="C74" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="50">
         <v>0.1555</v>
       </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="42"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="52"/>
       <c r="I74" s="13"/>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M74" s="39"/>
+      <c r="M74" s="49"/>
       <c r="N74" s="9">
         <v>417.58</v>
       </c>
@@ -32535,15 +31990,15 @@
       <c r="C75" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="40">
+      <c r="D75" s="50">
         <v>0.1789</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="42"/>
-      <c r="L75" s="43" t="s">
+      <c r="E75" s="51"/>
+      <c r="F75" s="52"/>
+      <c r="L75" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="M75" s="43"/>
+      <c r="M75" s="53"/>
       <c r="N75" s="14"/>
       <c r="P75" s="10" t="s">
         <v>127</v>
@@ -32556,11 +32011,11 @@
       <c r="C76" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="50">
         <v>0.27589999999999998</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="F76" s="42"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="52"/>
       <c r="P76" s="10" t="s">
         <v>129</v>
       </c>
@@ -32569,10 +32024,10 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="L77" s="44" t="s">
+      <c r="L77" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M77" s="44"/>
+      <c r="M77" s="54"/>
       <c r="N77" s="15" t="s">
         <v>131</v>
       </c>
@@ -32631,60 +32086,60 @@
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
       <c r="G86" s="17"/>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C87" s="46" t="s">
+      <c r="C87" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D87" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="52">
+      <c r="D87" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="43"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="45">
         <v>0.58440000000000003</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C88" s="47"/>
-      <c r="D88" s="49" t="s">
+      <c r="C88" s="40"/>
+      <c r="D88" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E88" s="50"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="53"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="46"/>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C89" s="47"/>
-      <c r="D89" s="49" t="s">
+      <c r="C89" s="40"/>
+      <c r="D89" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="53"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="46"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C90" s="47"/>
-      <c r="D90" s="49" t="s">
+      <c r="C90" s="40"/>
+      <c r="D90" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="53"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="46"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C91" s="48"/>
-      <c r="D91" s="49" t="s">
+      <c r="C91" s="41"/>
+      <c r="D91" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="50"/>
-      <c r="F91" s="51"/>
-      <c r="G91" s="54"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="47"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="18"/>
@@ -32703,6 +32158,15 @@
   </sheetData>
   <autoFilter ref="B1:S65" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="22">
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
     <mergeCell ref="C84:F84"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="L72:M72"/>
@@ -32716,15 +32180,6 @@
     <mergeCell ref="C81:F81"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:G91"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36804,10 +36259,10 @@
       </c>
     </row>
     <row r="81" spans="3:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D81" s="38"/>
+      <c r="D81" s="48"/>
       <c r="E81" s="7">
         <v>2004.8</v>
       </c>
@@ -36816,10 +36271,10 @@
       </c>
     </row>
     <row r="82" spans="3:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="L82" s="39" t="s">
+      <c r="L82" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="M82" s="39"/>
+      <c r="M82" s="49"/>
       <c r="N82" s="9">
         <v>2247.46</v>
       </c>
@@ -36834,11 +36289,11 @@
       <c r="C83" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="40">
+      <c r="D83" s="50">
         <v>0.38469999999999999</v>
       </c>
-      <c r="E83" s="41"/>
-      <c r="F83" s="42"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="52"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
@@ -36853,16 +36308,16 @@
       <c r="C84" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="50">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="E84" s="41"/>
-      <c r="F84" s="42"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="52"/>
       <c r="I84" s="13"/>
-      <c r="L84" s="39" t="s">
+      <c r="L84" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M84" s="39"/>
+      <c r="M84" s="49"/>
       <c r="N84" s="9">
         <v>456.42</v>
       </c>
@@ -36877,15 +36332,15 @@
       <c r="C85" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D85" s="40">
+      <c r="D85" s="50">
         <v>0.123</v>
       </c>
-      <c r="E85" s="41"/>
-      <c r="F85" s="42"/>
-      <c r="L85" s="43" t="s">
+      <c r="E85" s="51"/>
+      <c r="F85" s="52"/>
+      <c r="L85" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="M85" s="43"/>
+      <c r="M85" s="53"/>
       <c r="N85" s="14"/>
       <c r="P85" s="10" t="s">
         <v>127</v>
@@ -36898,11 +36353,11 @@
       <c r="C86" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="40">
+      <c r="D86" s="50">
         <v>0.38790000000000002</v>
       </c>
-      <c r="E86" s="41"/>
-      <c r="F86" s="42"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="52"/>
       <c r="P86" s="10" t="s">
         <v>129</v>
       </c>
@@ -36911,10 +36366,10 @@
       </c>
     </row>
     <row r="87" spans="3:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="L87" s="44" t="s">
+      <c r="L87" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M87" s="44"/>
+      <c r="M87" s="54"/>
       <c r="N87" s="15" t="s">
         <v>131</v>
       </c>
@@ -36973,60 +36428,60 @@
       </c>
     </row>
     <row r="96" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
       <c r="G96" s="17"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97" s="46" t="s">
+      <c r="C97" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D97" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="50"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="52">
+      <c r="D97" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="43"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="45">
         <v>0.42130000000000001</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="47"/>
-      <c r="D98" s="49" t="s">
+      <c r="C98" s="40"/>
+      <c r="D98" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E98" s="50"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="53"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="46"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C99" s="47"/>
-      <c r="D99" s="49" t="s">
+      <c r="C99" s="40"/>
+      <c r="D99" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E99" s="50"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="53"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="46"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100" s="47"/>
-      <c r="D100" s="49" t="s">
+      <c r="C100" s="40"/>
+      <c r="D100" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="50"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="53"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="46"/>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C101" s="48"/>
-      <c r="D101" s="49" t="s">
+      <c r="C101" s="41"/>
+      <c r="D101" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E101" s="50"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="54"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="47"/>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102" s="18"/>
@@ -37045,6 +36500,15 @@
   </sheetData>
   <autoFilter ref="B1:S75" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="22">
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
     <mergeCell ref="C94:F94"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="L82:M82"/>
@@ -37058,15 +36522,6 @@
     <mergeCell ref="C91:F91"/>
     <mergeCell ref="C92:F92"/>
     <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40114,19 +39569,19 @@
       </c>
     </row>
     <row r="63" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="38"/>
+      <c r="D63" s="48"/>
       <c r="E63" s="7">
         <v>1545.88</v>
       </c>
     </row>
     <row r="64" spans="2:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L64" s="39" t="s">
+      <c r="L64" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="M64" s="39"/>
+      <c r="M64" s="49"/>
       <c r="N64" s="9">
         <v>1708.02</v>
       </c>
@@ -40138,11 +39593,11 @@
       <c r="C65" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="50">
         <v>0.35160000000000002</v>
       </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
@@ -40157,16 +39612,16 @@
       <c r="C66" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="50">
         <v>0.16070000000000001</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="42"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
       <c r="I66" s="13"/>
-      <c r="L66" s="39" t="s">
+      <c r="L66" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M66" s="39"/>
+      <c r="M66" s="49"/>
       <c r="N66" s="9">
         <v>278.32</v>
       </c>
@@ -40181,15 +39636,15 @@
       <c r="C67" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="50">
         <v>0.1227</v>
       </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="42"/>
-      <c r="L67" s="43" t="s">
+      <c r="E67" s="51"/>
+      <c r="F67" s="52"/>
+      <c r="L67" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="M67" s="43"/>
+      <c r="M67" s="53"/>
       <c r="N67" s="14"/>
       <c r="P67" s="10" t="s">
         <v>19</v>
@@ -40202,11 +39657,11 @@
       <c r="C68" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="50">
         <v>0.3649</v>
       </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="42"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="52"/>
       <c r="P68" s="10" t="s">
         <v>127</v>
       </c>
@@ -40215,10 +39670,10 @@
       </c>
     </row>
     <row r="69" spans="3:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="L69" s="44" t="s">
+      <c r="L69" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M69" s="44"/>
+      <c r="M69" s="54"/>
       <c r="N69" s="15" t="s">
         <v>131</v>
       </c>
@@ -40285,60 +39740,60 @@
       </c>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
       <c r="G78" s="17"/>
     </row>
     <row r="79" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="52">
+      <c r="D79" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="43"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45">
         <v>0.58479999999999999</v>
       </c>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C80" s="47"/>
-      <c r="D80" s="49" t="s">
+      <c r="C80" s="40"/>
+      <c r="D80" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="53"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="46"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C81" s="47"/>
-      <c r="D81" s="49" t="s">
+      <c r="C81" s="40"/>
+      <c r="D81" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E81" s="50"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="53"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="46"/>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C82" s="47"/>
-      <c r="D82" s="49" t="s">
+      <c r="C82" s="40"/>
+      <c r="D82" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E82" s="50"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="53"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="46"/>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C83" s="48"/>
-      <c r="D83" s="49" t="s">
+      <c r="C83" s="41"/>
+      <c r="D83" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="54"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="47"/>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="18"/>
@@ -40356,6 +39811,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
     <mergeCell ref="C76:F76"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="L64:M64"/>
@@ -40369,15 +39833,6 @@
     <mergeCell ref="C73:F73"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41099,19 +40554,19 @@
       </c>
     </row>
     <row r="19" spans="3:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="7">
         <v>299.39999999999998</v>
       </c>
     </row>
     <row r="20" spans="3:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="39"/>
+      <c r="M20" s="49"/>
       <c r="N20" s="9">
         <v>453.24</v>
       </c>
@@ -41123,11 +40578,11 @@
       <c r="C21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="50">
         <v>1</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
@@ -41142,16 +40597,16 @@
       <c r="C22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="40">
-        <v>0</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
+      <c r="D22" s="50">
+        <v>0</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="I22" s="13"/>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="39"/>
+      <c r="M22" s="49"/>
       <c r="N22" s="9">
         <v>0</v>
       </c>
@@ -41166,15 +40621,15 @@
       <c r="C23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="40">
-        <v>0</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="L23" s="43" t="s">
+      <c r="D23" s="50">
+        <v>0</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="L23" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="53"/>
       <c r="N23" s="14"/>
       <c r="P23" s="10" t="s">
         <v>19</v>
@@ -41187,11 +40642,11 @@
       <c r="C24" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="40">
-        <v>0</v>
-      </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="D24" s="50">
+        <v>0</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="P24" s="10" t="s">
         <v>127</v>
       </c>
@@ -41200,10 +40655,10 @@
       </c>
     </row>
     <row r="25" spans="3:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="L25" s="44" t="s">
+      <c r="L25" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M25" s="44"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="15" t="s">
         <v>700</v>
       </c>
@@ -41270,60 +40725,60 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52">
+      <c r="D35" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="47"/>
-      <c r="D36" s="49" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="53"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="47"/>
-      <c r="D37" s="49" t="s">
+      <c r="C37" s="40"/>
+      <c r="D37" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="53"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="47"/>
-      <c r="D38" s="49" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="53"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="48"/>
-      <c r="D39" s="49" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="54"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="18"/>
@@ -41342,6 +40797,15 @@
   </sheetData>
   <autoFilter ref="B1:S13" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="22">
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="L20:M20"/>
@@ -41355,15 +40819,6 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41373,7 +40828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
